--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang3/02.XuLyBH/XLBH2103_DLToanThang.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang3/02.XuLyBH/XLBH2103_DLToanThang.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="80">
   <si>
     <t>STT</t>
   </si>
@@ -265,6 +265,15 @@
   </si>
   <si>
     <t>Thể</t>
+  </si>
+  <si>
+    <t>Đổi trang cho thiết bị</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>Khách báo không sửa chữa thiết bị</t>
   </si>
 </sst>
 </file>
@@ -649,6 +658,36 @@
     <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -656,36 +695,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -995,7 +1004,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="F9" sqref="B9:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1027,43 +1036,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="73"/>
+      <c r="F2" s="70"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -1108,58 +1117,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="66" t="s">
+      <c r="A4" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66" t="s">
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="66" t="s">
+      <c r="K4" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="66"/>
-      <c r="M4" s="69" t="s">
+      <c r="L4" s="63"/>
+      <c r="M4" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="69" t="s">
+      <c r="N4" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="66" t="s">
+      <c r="O4" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="67" t="s">
+      <c r="P4" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="66" t="s">
+      <c r="Q4" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="66" t="s">
+      <c r="R4" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="72" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="66" t="s">
+      <c r="U4" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="66" t="s">
+      <c r="V4" s="63" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -1184,23 +1193,23 @@
       <c r="I5" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="66"/>
+      <c r="J5" s="63"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="67"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="75"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="63"/>
+      <c r="P5" s="64"/>
+      <c r="Q5" s="63"/>
+      <c r="R5" s="63"/>
+      <c r="S5" s="72"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
+      <c r="U5" s="63"/>
+      <c r="V5" s="63"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1210,7 +1219,9 @@
       <c r="B6" s="42">
         <v>44264</v>
       </c>
-      <c r="C6" s="42"/>
+      <c r="C6" s="42">
+        <v>44267</v>
+      </c>
       <c r="D6" s="43" t="s">
         <v>44</v>
       </c>
@@ -1230,15 +1241,25 @@
         <v>68</v>
       </c>
       <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
+      <c r="M6" s="45" t="s">
+        <v>77</v>
+      </c>
       <c r="N6" s="47"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="43"/>
+      <c r="O6" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="P6" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="43" t="s">
+        <v>25</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="13"/>
-      <c r="U6" s="63" t="s">
+      <c r="U6" s="73" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1269,7 +1290,7 @@
       <c r="R7" s="43"/>
       <c r="S7" s="4"/>
       <c r="T7" s="13"/>
-      <c r="U7" s="64"/>
+      <c r="U7" s="74"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1298,7 +1319,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="13"/>
-      <c r="U8" s="64"/>
+      <c r="U8" s="74"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1327,7 +1348,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="23"/>
-      <c r="U9" s="64"/>
+      <c r="U9" s="74"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1356,7 +1377,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="32"/>
-      <c r="U10" s="64"/>
+      <c r="U10" s="74"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1385,7 +1406,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="13"/>
-      <c r="U11" s="64"/>
+      <c r="U11" s="74"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1414,7 +1435,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="13"/>
-      <c r="U12" s="63" t="s">
+      <c r="U12" s="73" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1445,7 +1466,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="13"/>
-      <c r="U13" s="64"/>
+      <c r="U13" s="74"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1474,7 +1495,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="13"/>
-      <c r="U14" s="64"/>
+      <c r="U14" s="74"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1503,7 +1524,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="64"/>
+      <c r="U15" s="74"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1532,7 +1553,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="65"/>
+      <c r="U16" s="75"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -1651,7 +1672,7 @@
       </c>
       <c r="V20" s="11">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="16"/>
     </row>
@@ -2152,7 +2173,7 @@
       </c>
       <c r="V36" s="11">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" s="16"/>
     </row>
@@ -2184,7 +2205,7 @@
       </c>
       <c r="V37" s="11">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="16"/>
     </row>
@@ -2763,6 +2784,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="P4:P5"/>
@@ -2776,11 +2802,6 @@
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2792,7 +2813,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2824,41 +2845,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -2903,58 +2924,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="66" t="s">
+      <c r="A4" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66" t="s">
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="66" t="s">
+      <c r="K4" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="66"/>
-      <c r="M4" s="69" t="s">
+      <c r="L4" s="63"/>
+      <c r="M4" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="69" t="s">
+      <c r="N4" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="66" t="s">
+      <c r="O4" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="67" t="s">
+      <c r="P4" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="66" t="s">
+      <c r="Q4" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="66" t="s">
+      <c r="R4" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="72" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="66" t="s">
+      <c r="U4" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="66" t="s">
+      <c r="V4" s="63" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="53" t="s">
         <v>1</v>
       </c>
@@ -2979,23 +3000,23 @@
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="66"/>
+      <c r="J5" s="63"/>
       <c r="K5" s="53" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="67"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="75"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="63"/>
+      <c r="P5" s="64"/>
+      <c r="Q5" s="63"/>
+      <c r="R5" s="63"/>
+      <c r="S5" s="72"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
+      <c r="U5" s="63"/>
+      <c r="V5" s="63"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3005,7 +3026,9 @@
       <c r="B6" s="42">
         <v>44264</v>
       </c>
-      <c r="C6" s="42"/>
+      <c r="C6" s="42">
+        <v>44267</v>
+      </c>
       <c r="D6" s="43" t="s">
         <v>66</v>
       </c>
@@ -3043,7 +3066,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="52"/>
-      <c r="U6" s="63" t="s">
+      <c r="U6" s="73" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3058,7 +3081,9 @@
       <c r="B7" s="42">
         <v>44264</v>
       </c>
-      <c r="C7" s="42"/>
+      <c r="C7" s="42">
+        <v>44267</v>
+      </c>
       <c r="D7" s="43" t="s">
         <v>66</v>
       </c>
@@ -3082,15 +3107,25 @@
       <c r="L7" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="M7" s="45"/>
+      <c r="M7" s="45" t="s">
+        <v>79</v>
+      </c>
       <c r="N7" s="3"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="43"/>
+      <c r="O7" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="P7" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="43" t="s">
+        <v>35</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="52"/>
-      <c r="U7" s="64"/>
+      <c r="U7" s="74"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3119,7 +3154,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="52"/>
-      <c r="U8" s="64"/>
+      <c r="U8" s="74"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3148,7 +3183,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="52"/>
-      <c r="U9" s="64"/>
+      <c r="U9" s="74"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3177,7 +3212,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="52"/>
-      <c r="U10" s="64"/>
+      <c r="U10" s="74"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3206,7 +3241,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="52"/>
-      <c r="U11" s="64"/>
+      <c r="U11" s="74"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3235,7 +3270,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="52"/>
-      <c r="U12" s="63" t="s">
+      <c r="U12" s="73" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3266,7 +3301,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="52"/>
-      <c r="U13" s="64"/>
+      <c r="U13" s="74"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3295,7 +3330,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="52"/>
-      <c r="U14" s="64"/>
+      <c r="U14" s="74"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3324,7 +3359,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="64"/>
+      <c r="U15" s="74"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3353,7 +3388,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="65"/>
+      <c r="U16" s="75"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3504,7 +3539,7 @@
       </c>
       <c r="V21" s="11">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="16"/>
     </row>
@@ -3685,7 +3720,7 @@
       </c>
       <c r="V27" s="11">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27" s="16"/>
     </row>
@@ -4005,7 +4040,7 @@
       </c>
       <c r="V37" s="11">
         <f>SUM(V26:V36)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W37" s="16"/>
     </row>
@@ -4123,7 +4158,7 @@
       </c>
       <c r="V41" s="11">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W41" s="16"/>
     </row>
@@ -4584,6 +4619,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4595,13 +4637,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4645,43 +4680,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="73"/>
+      <c r="F2" s="70"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -4726,58 +4761,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="66" t="s">
+      <c r="A4" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66" t="s">
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="66" t="s">
+      <c r="K4" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="66"/>
-      <c r="M4" s="69" t="s">
+      <c r="L4" s="63"/>
+      <c r="M4" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="69" t="s">
+      <c r="N4" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="66" t="s">
+      <c r="O4" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="67" t="s">
+      <c r="P4" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="66" t="s">
+      <c r="Q4" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="66" t="s">
+      <c r="R4" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="72" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="66" t="s">
+      <c r="U4" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="66" t="s">
+      <c r="V4" s="63" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="50" t="s">
         <v>1</v>
       </c>
@@ -4802,23 +4837,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="66"/>
+      <c r="J5" s="63"/>
       <c r="K5" s="50" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="67"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="75"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="63"/>
+      <c r="P5" s="64"/>
+      <c r="Q5" s="63"/>
+      <c r="R5" s="63"/>
+      <c r="S5" s="72"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
+      <c r="U5" s="63"/>
+      <c r="V5" s="63"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4844,7 +4879,7 @@
       <c r="R6" s="43"/>
       <c r="S6" s="4"/>
       <c r="T6" s="49"/>
-      <c r="U6" s="63" t="s">
+      <c r="U6" s="73" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -4875,7 +4910,7 @@
       <c r="R7" s="43"/>
       <c r="S7" s="4"/>
       <c r="T7" s="49"/>
-      <c r="U7" s="64"/>
+      <c r="U7" s="74"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -4904,7 +4939,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="49"/>
-      <c r="U8" s="64"/>
+      <c r="U8" s="74"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -4933,7 +4968,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="49"/>
-      <c r="U9" s="64"/>
+      <c r="U9" s="74"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -4962,7 +4997,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="49"/>
-      <c r="U10" s="64"/>
+      <c r="U10" s="74"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -4991,7 +5026,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="49"/>
-      <c r="U11" s="64"/>
+      <c r="U11" s="74"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5020,7 +5055,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="49"/>
-      <c r="U12" s="63" t="s">
+      <c r="U12" s="73" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5051,7 +5086,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="49"/>
-      <c r="U13" s="64"/>
+      <c r="U13" s="74"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5080,7 +5115,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="49"/>
-      <c r="U14" s="64"/>
+      <c r="U14" s="74"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5109,7 +5144,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="64"/>
+      <c r="U15" s="74"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5138,7 +5173,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="65"/>
+      <c r="U16" s="75"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6369,13 +6404,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6387,6 +6415,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang3/02.XuLyBH/XLBH2103_DLToanThang.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang3/02.XuLyBH/XLBH2103_DLToanThang.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang3\02.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang3\02.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="19" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="80">
   <si>
     <t>STT</t>
   </si>
@@ -658,6 +658,15 @@
     <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -686,15 +695,6 @@
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1003,8 +1003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F9" sqref="B9:F10"/>
+    <sheetView showZeros="0" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1036,43 +1036,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="70" t="s">
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="70"/>
+      <c r="F2" s="73"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -1117,58 +1117,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="63" t="s">
+      <c r="A4" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63" t="s">
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="63" t="s">
+      <c r="K4" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="63"/>
-      <c r="M4" s="66" t="s">
+      <c r="L4" s="66"/>
+      <c r="M4" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="66" t="s">
+      <c r="N4" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="63" t="s">
+      <c r="O4" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="64" t="s">
+      <c r="P4" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="63" t="s">
+      <c r="Q4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="63" t="s">
+      <c r="R4" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="72" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="63" t="s">
+      <c r="U4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="63" t="s">
+      <c r="V4" s="66" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -1193,23 +1193,23 @@
       <c r="I5" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="63"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="63"/>
-      <c r="P5" s="64"/>
-      <c r="Q5" s="63"/>
-      <c r="R5" s="63"/>
-      <c r="S5" s="72"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="67"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="63"/>
-      <c r="V5" s="63"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1259,7 +1259,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="13"/>
-      <c r="U6" s="73" t="s">
+      <c r="U6" s="63" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1290,7 +1290,7 @@
       <c r="R7" s="43"/>
       <c r="S7" s="4"/>
       <c r="T7" s="13"/>
-      <c r="U7" s="74"/>
+      <c r="U7" s="64"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1319,7 +1319,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="13"/>
-      <c r="U8" s="74"/>
+      <c r="U8" s="64"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1348,7 +1348,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="23"/>
-      <c r="U9" s="74"/>
+      <c r="U9" s="64"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1377,7 +1377,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="32"/>
-      <c r="U10" s="74"/>
+      <c r="U10" s="64"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1406,7 +1406,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="13"/>
-      <c r="U11" s="74"/>
+      <c r="U11" s="64"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1435,7 +1435,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="13"/>
-      <c r="U12" s="73" t="s">
+      <c r="U12" s="63" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1466,7 +1466,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="13"/>
-      <c r="U13" s="74"/>
+      <c r="U13" s="64"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1495,7 +1495,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="13"/>
-      <c r="U14" s="74"/>
+      <c r="U14" s="64"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1524,7 +1524,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="64"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1553,7 +1553,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="75"/>
+      <c r="U16" s="65"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2784,11 +2784,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="P4:P5"/>
@@ -2802,6 +2797,11 @@
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2812,8 +2812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView showZeros="0" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2845,41 +2845,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -2924,58 +2924,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="63" t="s">
+      <c r="A4" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63" t="s">
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="63" t="s">
+      <c r="K4" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="63"/>
-      <c r="M4" s="66" t="s">
+      <c r="L4" s="66"/>
+      <c r="M4" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="66" t="s">
+      <c r="N4" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="63" t="s">
+      <c r="O4" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="64" t="s">
+      <c r="P4" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="63" t="s">
+      <c r="Q4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="63" t="s">
+      <c r="R4" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="72" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="63" t="s">
+      <c r="U4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="63" t="s">
+      <c r="V4" s="66" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="53" t="s">
         <v>1</v>
       </c>
@@ -3000,23 +3000,23 @@
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="63"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="53" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="63"/>
-      <c r="P5" s="64"/>
-      <c r="Q5" s="63"/>
-      <c r="R5" s="63"/>
-      <c r="S5" s="72"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="67"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="63"/>
-      <c r="V5" s="63"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3066,7 +3066,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="52"/>
-      <c r="U6" s="73" t="s">
+      <c r="U6" s="63" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3125,7 +3125,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="52"/>
-      <c r="U7" s="74"/>
+      <c r="U7" s="64"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3154,7 +3154,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="52"/>
-      <c r="U8" s="74"/>
+      <c r="U8" s="64"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3183,7 +3183,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="52"/>
-      <c r="U9" s="74"/>
+      <c r="U9" s="64"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3212,7 +3212,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="52"/>
-      <c r="U10" s="74"/>
+      <c r="U10" s="64"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3241,7 +3241,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="52"/>
-      <c r="U11" s="74"/>
+      <c r="U11" s="64"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3270,7 +3270,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="52"/>
-      <c r="U12" s="73" t="s">
+      <c r="U12" s="63" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3301,7 +3301,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="52"/>
-      <c r="U13" s="74"/>
+      <c r="U13" s="64"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3330,7 +3330,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="52"/>
-      <c r="U14" s="74"/>
+      <c r="U14" s="64"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3359,7 +3359,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="64"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3388,7 +3388,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="75"/>
+      <c r="U16" s="65"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4619,13 +4619,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4637,6 +4630,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4647,8 +4647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4680,43 +4680,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="70" t="s">
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="70"/>
+      <c r="F2" s="73"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -4761,58 +4761,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="63" t="s">
+      <c r="A4" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63" t="s">
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="63" t="s">
+      <c r="K4" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="63"/>
-      <c r="M4" s="66" t="s">
+      <c r="L4" s="66"/>
+      <c r="M4" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="66" t="s">
+      <c r="N4" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="63" t="s">
+      <c r="O4" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="64" t="s">
+      <c r="P4" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="63" t="s">
+      <c r="Q4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="63" t="s">
+      <c r="R4" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="72" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="63" t="s">
+      <c r="U4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="63" t="s">
+      <c r="V4" s="66" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="50" t="s">
         <v>1</v>
       </c>
@@ -4837,49 +4837,73 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="63"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="50" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="63"/>
-      <c r="P5" s="64"/>
-      <c r="Q5" s="63"/>
-      <c r="R5" s="63"/>
-      <c r="S5" s="72"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="67"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="63"/>
-      <c r="V5" s="63"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="44"/>
+      <c r="B6" s="42">
+        <v>44264</v>
+      </c>
+      <c r="C6" s="42">
+        <v>44267</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="44">
+        <v>868183035889372</v>
+      </c>
       <c r="F6" s="58"/>
-      <c r="G6" s="43"/>
+      <c r="G6" s="43" t="s">
+        <v>67</v>
+      </c>
       <c r="H6" s="43"/>
-      <c r="I6" s="59"/>
+      <c r="I6" s="59" t="s">
+        <v>70</v>
+      </c>
       <c r="J6" s="45"/>
-      <c r="K6" s="48"/>
+      <c r="K6" s="62" t="s">
+        <v>68</v>
+      </c>
       <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
+      <c r="M6" s="45" t="s">
+        <v>77</v>
+      </c>
       <c r="N6" s="47"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="43"/>
+      <c r="O6" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="P6" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="43" t="s">
+        <v>25</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="49"/>
-      <c r="U6" s="73" t="s">
+      <c r="U6" s="63" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -4891,26 +4915,50 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="43"/>
+      <c r="B7" s="42">
+        <v>44264</v>
+      </c>
+      <c r="C7" s="42">
+        <v>44267</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="44">
+        <v>868183034775333</v>
+      </c>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43" t="s">
+        <v>67</v>
+      </c>
       <c r="H7" s="43"/>
-      <c r="I7" s="60"/>
+      <c r="I7" s="60" t="s">
+        <v>69</v>
+      </c>
       <c r="J7" s="45"/>
-      <c r="K7" s="1"/>
+      <c r="K7" s="48" t="s">
+        <v>68</v>
+      </c>
       <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="43"/>
+      <c r="M7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N7" s="47"/>
+      <c r="O7" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="P7" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="43" t="s">
+        <v>25</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="49"/>
-      <c r="U7" s="74"/>
+      <c r="U7" s="64"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -4920,26 +4968,54 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="43"/>
+      <c r="B8" s="42">
+        <v>44264</v>
+      </c>
+      <c r="C8" s="42">
+        <v>44267</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="44">
+        <v>868183033877858</v>
+      </c>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43" t="s">
+        <v>64</v>
+      </c>
       <c r="H8" s="43"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="43"/>
+      <c r="I8" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="J8" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L8" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="M8" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="N8" s="3"/>
+      <c r="O8" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="P8" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="43" t="s">
+        <v>35</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="49"/>
-      <c r="U8" s="74"/>
+      <c r="U8" s="64"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -4968,7 +5044,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="49"/>
-      <c r="U9" s="74"/>
+      <c r="U9" s="64"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -4997,7 +5073,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="49"/>
-      <c r="U10" s="74"/>
+      <c r="U10" s="64"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5026,7 +5102,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="49"/>
-      <c r="U11" s="74"/>
+      <c r="U11" s="64"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5055,7 +5131,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="49"/>
-      <c r="U12" s="73" t="s">
+      <c r="U12" s="63" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5086,7 +5162,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="49"/>
-      <c r="U13" s="74"/>
+      <c r="U13" s="64"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5115,7 +5191,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="49"/>
-      <c r="U14" s="74"/>
+      <c r="U14" s="64"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5144,7 +5220,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="64"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5173,7 +5249,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="75"/>
+      <c r="U16" s="65"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -5292,7 +5368,7 @@
       </c>
       <c r="V20" s="11">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W20" s="16"/>
     </row>
@@ -5324,7 +5400,7 @@
       </c>
       <c r="V21" s="11">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="16"/>
     </row>
@@ -5505,7 +5581,7 @@
       </c>
       <c r="V27" s="11">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27" s="16"/>
     </row>
@@ -5793,7 +5869,7 @@
       </c>
       <c r="V36" s="11">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W36" s="16"/>
     </row>
@@ -5825,7 +5901,7 @@
       </c>
       <c r="V37" s="11">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W37" s="16"/>
     </row>
@@ -5943,7 +6019,7 @@
       </c>
       <c r="V41" s="11">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W41" s="16"/>
     </row>
@@ -6404,6 +6480,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6415,13 +6498,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
